--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236B5DD-8E9B-4F04-9288-2F298A5B0D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -27,16 +28,22 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Dhruv</t>
-  </si>
-  <si>
     <t>parth</t>
+  </si>
+  <si>
+    <t>Viraj Thakkar</t>
+  </si>
+  <si>
+    <t>9725 898251</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,19 +354,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -367,20 +375,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>8460626019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>9408157350</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>9725898251</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>99999999</v>
       </c>
     </row>
   </sheetData>

--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236B5DD-8E9B-4F04-9288-2F298A5B0D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974DE44E-60CA-4032-AC0A-CD30D2398BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -28,29 +28,254 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>parth</t>
-  </si>
-  <si>
-    <t>Viraj Thakkar</t>
-  </si>
-  <si>
-    <t>9725 898251</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>AGRAWAL MANISH SURESHCHANDRA</t>
+  </si>
+  <si>
+    <t>AGRAWAL MEGHA ADESHCHANDRA</t>
+  </si>
+  <si>
+    <t>AGRAWAL PRASANT PINAKIN</t>
+  </si>
+  <si>
+    <t>AGRAWAL RAHUL MITTHANLAL</t>
+  </si>
+  <si>
+    <t>AGRAWAL RAKESHKUMAR SATISHKUMAR</t>
+  </si>
+  <si>
+    <t>AGRAWAL ROHIT NARAJANBHAI</t>
+  </si>
+  <si>
+    <t>AGRAWAL S RACHANABEN</t>
+  </si>
+  <si>
+    <t>AGRAWAL SURESHCHANDRA HARICHARAN LAL</t>
+  </si>
+  <si>
+    <t>AGWAN SHEZAD SAKIR</t>
+  </si>
+  <si>
+    <t>AHELEKURESH NAJIRABANU ABDULFARIK</t>
+  </si>
+  <si>
+    <t>AHESHANKHAN PYARESAHEB DODIYA</t>
+  </si>
+  <si>
+    <t>AHIR NAMRATA MAHESHKUMAR</t>
+  </si>
+  <si>
+    <t>AHUJA DEEPIKA GURUBACHANSINGH</t>
+  </si>
+  <si>
+    <t>AHUJA GURUBACHANSINGH  KARTARSINGH</t>
+  </si>
+  <si>
+    <t>AILSINGHANI DIPTI MAHESH</t>
+  </si>
+  <si>
+    <t>AJMERI DIVYABEN MAHESHBHAI</t>
+  </si>
+  <si>
+    <t>AJMERI FORAM JITENDRABHAI</t>
+  </si>
+  <si>
+    <t>AKHAI SHABBIRHUSEN ABDULGAFAR</t>
+  </si>
+  <si>
+    <t>AKHANI KANTILAL RASIKLAL</t>
+  </si>
+  <si>
+    <t>AKRUWALA SONAL RAKSHIT</t>
+  </si>
+  <si>
+    <t>ALPANA YAGNESH BAKTARWALA</t>
+  </si>
+  <si>
+    <t>AMIN CHANDRAKANT MAGANBHAI</t>
+  </si>
+  <si>
+    <t>AMIN DAHYABHAI MAVALBHAI</t>
+  </si>
+  <si>
+    <t>AMIN DHARMENDRA DEVJIBHAI</t>
+  </si>
+  <si>
+    <t>42 Message</t>
+  </si>
+  <si>
+    <t>AMIN DHIRUBHAI KANTIBHAI</t>
+  </si>
+  <si>
+    <t>AMIN DIPAKCHANDRA PRAVINBHAI</t>
+  </si>
+  <si>
+    <t>AMIN DIVYESH MAGANBHAI</t>
+  </si>
+  <si>
+    <t>AMIN KAMLESHBHAI KALIDAS</t>
+  </si>
+  <si>
+    <t>AMIN NIDHIBEN GHANSHYAMBHAI</t>
+  </si>
+  <si>
+    <t>AMIN PRACHI RUSHIBHAI</t>
+  </si>
+  <si>
+    <t>AMIN PRATIKSHA BIPINCHANDRA</t>
+  </si>
+  <si>
+    <t>AMIN RAJENDRA CHAMPAKLAL</t>
+  </si>
+  <si>
+    <t>AMIN ROMIL DIPAKBHAI</t>
+  </si>
+  <si>
+    <t>AMIN SHAILESH VISHNUBHAI</t>
+  </si>
+  <si>
+    <t>AMIN SHWETA RANCHHODBHAI</t>
+  </si>
+  <si>
+    <t>AMIN TUSHAR RAMANBHAI</t>
+  </si>
+  <si>
+    <t>AMIN TUSHARKUMAR JAYANTBHAI</t>
+  </si>
+  <si>
+    <t>AMITKUMAR RAMESHCHANDRA</t>
+  </si>
+  <si>
+    <t>AMLANI NISARG GIRISHBHAI</t>
+  </si>
+  <si>
+    <t>ANAND DIPANKAR LALITKUMAR</t>
+  </si>
+  <si>
+    <t>ANAND PARUL LALITKUMAR</t>
+  </si>
+  <si>
+    <t>ANGUTHI NURUDDIN ISMAILMUSA</t>
+  </si>
+  <si>
+    <t>ANSARI AYESHA MOHAMMADHADIS</t>
+  </si>
+  <si>
+    <t>ANSARI MOHAMMADSOYEB SAKIL</t>
+  </si>
+  <si>
+    <t>ANSARI SHAMA PRAVEEN</t>
+  </si>
+  <si>
+    <t>ANTANI SONALI NIDHISHBHAI</t>
+  </si>
+  <si>
+    <t>ARAB DILASHADBANU ABBASMIYA</t>
+  </si>
+  <si>
+    <t>ARGADE VAIBHAV YOGESH</t>
+  </si>
+  <si>
+    <t>ARIFALI AKBARALI SAIYED</t>
+  </si>
+  <si>
+    <t>ARORA SHIVANGINIBEN MUKESHBHAI</t>
+  </si>
+  <si>
+    <t>ARSIWALA NAFISA MOHSINBHAI</t>
+  </si>
+  <si>
+    <t>ARYA HITESHKUMAR SUNILKUMAR</t>
+  </si>
+  <si>
+    <t>ASARANI KALPESH SHAKARABHAI</t>
+  </si>
+  <si>
+    <t>ASTHANA EKTA SUSHIL</t>
+  </si>
+  <si>
+    <t>ATALIA DHARMENDRASINH HARSHADSINH</t>
+  </si>
+  <si>
+    <t>ATHAVALE SIMANTINI ATUL</t>
+  </si>
+  <si>
+    <t>ATODARIYA JAIMINI SHAILENDRASINH</t>
+  </si>
+  <si>
+    <t>ATTARWALA MOHAMMEDSOHIL SAEEDAHMED</t>
+  </si>
+  <si>
+    <t>AUNDHIYA PANKEET PANKAJKUMAR</t>
+  </si>
+  <si>
+    <t>AWATRAMANI PREETI RAVI</t>
+  </si>
+  <si>
+    <t>B KISHORE KUMAR</t>
+  </si>
+  <si>
+    <t>BABI AMIRKHAN MUKHTARAHMED</t>
+  </si>
+  <si>
+    <t>BACHANI NAMRATA SEVAKRAM</t>
+  </si>
+  <si>
+    <t>BACHCHA MOHMEDJABIR MUSABHAI</t>
+  </si>
+  <si>
+    <t>BADGUJAR PUSHPA SHAILESH</t>
+  </si>
+  <si>
+    <t>BADRIALAM KHERULALAM SHAIKH</t>
+  </si>
+  <si>
+    <t>BAGDE NILIMABEN KRISHNAKANT</t>
+  </si>
+  <si>
+    <t>BAHRANI POOJAN VASUDEV</t>
+  </si>
+  <si>
+    <t>BAJ ANJALIKUMARI MUNNESHBHAI</t>
+  </si>
+  <si>
+    <t>BAJIWALA SIMRAN SALIMBHAI</t>
+  </si>
+  <si>
+    <t>BAJPAI SANGHARSH TULSIDAS</t>
+  </si>
+  <si>
+    <t>BAKTARWALA ALPANA YAGNESH</t>
+  </si>
+  <si>
+    <t>BALA LALJI AMRABHAI</t>
+  </si>
+  <si>
+    <t>BALOLIA PALVISH KARSANBHAI</t>
+  </si>
+  <si>
+    <t>60 Message</t>
+  </si>
+  <si>
+    <t>100 Message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,8 +298,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,48 +583,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9428761720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="3">
+        <v>9377993445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7984918377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9998790456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9925231340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9913234866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9276205945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9426385532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7600925167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9725518987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7600158336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9033469525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9727078187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9638473203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
         <v>8460626019</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>99999999</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9033312002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8511041044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9925273353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9723533996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9724329350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9586888448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9998909286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>9429256212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9427403631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9374845514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9909007800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <v>9327234398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>9898846824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>9824934105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8980848900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8141260989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8511121054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9428071779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9722122389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>9825022415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>9510821268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
+        <v>7405395163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2">
+        <v>8460626019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>9427629996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>9375671750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>9825513243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>9898895954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>9714099844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>9737090362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>8320066506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>9033325532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>9909930233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>9898286983</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>6355728900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>7567184406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>9427032107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>8347565504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>9913255521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>9904150743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>9426583737</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>9157335037</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>8866214287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>9824333293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>7984797545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>8401886087</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>9033004242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>9408837662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>9824272862</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>9429705337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>9173714595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>9998942344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>9909018526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>9619116101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>9428418385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>7778072130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>9723619847</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>7265994318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>9712225767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>9998909286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>8999888984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>7874302909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2">
+        <v>8460626019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9725898251</v>
       </c>
     </row>
   </sheetData>

--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2932361-D5D7-4FC6-A8AC-642B9DFC6713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D460C6FF-3207-4791-96D6-91960595A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>Name</t>
   </si>
@@ -28,345 +28,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>BANDAL SUDHIR RAMCHANDRA</t>
-  </si>
-  <si>
-    <t>BANE SUGANDHA PRAKASH</t>
-  </si>
-  <si>
-    <t>BANKAR VANDANA GIRDHARBHAI</t>
-  </si>
-  <si>
-    <t>BANSAL PARMESHWAR BABULAL</t>
-  </si>
-  <si>
-    <t>BAPAT TUSHAR BALKRISHNA</t>
-  </si>
-  <si>
-    <t>BAPAT VIVEK VIJAY</t>
-  </si>
-  <si>
-    <t>BARAD ANILABEN HIMATSINH</t>
-  </si>
-  <si>
-    <t>BARAIYA MALKESH VINODBHAI</t>
-  </si>
-  <si>
-    <t>BARAIYA RAVIKUMAR VINODBHAI</t>
-  </si>
-  <si>
-    <t>BARIA ATULKUMAR DINESHBHAI</t>
-  </si>
-  <si>
-    <t>BARIA DHAVALSINH TAKHATSINH</t>
-  </si>
-  <si>
-    <t>BARIA GANPATBHAI RANCHHODBHAI</t>
-  </si>
-  <si>
-    <t>BARIA MADHVIBEN JASVANTBHAI</t>
-  </si>
-  <si>
-    <t>BARIA MALKESH VINODBHAI</t>
-  </si>
-  <si>
-    <t>BARIA MANOJ RAMANBHAI</t>
-  </si>
-  <si>
-    <t>BARIA PRASHANTKUMAR SHANKARBHAI</t>
-  </si>
-  <si>
-    <t>BARIA RAKESHKUMAR SURESHBHAI</t>
-  </si>
-  <si>
-    <t>BARIA RAVIKUMAR VINODBHAI</t>
-  </si>
-  <si>
-    <t>BARIA SANDEEP MAGANBHAI</t>
-  </si>
-  <si>
-    <t>BARIA SURESHBHAI MANSINGBHAI</t>
-  </si>
-  <si>
-    <t>BARIA TAKHATSINH PARSOTTAMBHAI</t>
-  </si>
-  <si>
-    <t>BARIA THAKORLAL VERAGIBHAI</t>
-  </si>
-  <si>
-    <t>BARIA VAILASBEN NAVALSINGBHAI</t>
-  </si>
-  <si>
-    <t>BARIYA DHARMENDRASINH BHUPATSINH</t>
-  </si>
-  <si>
-    <t>BARIYA GAURANGBHAI DINESHBHAI</t>
-  </si>
-  <si>
-    <t>BARIYA KALPESH ARVINDBHAI</t>
-  </si>
-  <si>
-    <t>BARIYA KANUBHAI LALABHAI</t>
-  </si>
-  <si>
-    <t>Bariya Manoj Ramanbhai</t>
-  </si>
-  <si>
-    <t>BARIYA NIRAV BHARATBHAI</t>
-  </si>
-  <si>
-    <t>Bariya Rakeshkumar Sureshbhai</t>
-  </si>
-  <si>
-    <t>BARIYA SANDIP GANPATBHAI</t>
-  </si>
-  <si>
-    <t>BARIYA SHAILESH GANPATBHAI</t>
-  </si>
-  <si>
-    <t>BARODAWALA DEEPA HARIVADAN</t>
-  </si>
-  <si>
-    <t>BAROT ANIL SHYAMRAV</t>
-  </si>
-  <si>
-    <t>Barot Chetankumar Rajnikant</t>
-  </si>
-  <si>
-    <t>BAROT CHIRAG A.</t>
-  </si>
-  <si>
-    <t>BAROT DHARMENDRASINH BALWANTSINH</t>
-  </si>
-  <si>
-    <t>BAROT DHAVAL RAJNIKANT</t>
-  </si>
-  <si>
-    <t>BAROT HASMUKH KANTIBHAI</t>
-  </si>
-  <si>
-    <t>BAROT JAGDISH AMRUTLAL</t>
-  </si>
-  <si>
-    <t>BAROT JAYANTILAL DAHYABHAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAROT JIGNESH RAJNIKANT </t>
-  </si>
-  <si>
-    <t>BAROT JITENDRA MAGANBHAI</t>
-  </si>
-  <si>
-    <t>BAROT KAMINIBEN GIRISHBHAI</t>
-  </si>
-  <si>
-    <t>BAROT KHUSHBU NARENDRABHAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAROT MEGHA JAGDISH </t>
-  </si>
-  <si>
-    <t>BAROT MUKESHKUMAR KUBERBHAI</t>
-  </si>
-  <si>
-    <t>BAROT NILESHKUMAR JUGALKISHOR</t>
-  </si>
-  <si>
-    <t>BAROT PRADIPKUMAR AMBALAL</t>
-  </si>
-  <si>
-    <t>BAROT PRANAV KIRITKUMAR</t>
-  </si>
-  <si>
-    <t>BAROT PRINKAL ALPESHKUMAR</t>
-  </si>
-  <si>
-    <t>BAROT PRIYANKABEN SHIRISHBHAI</t>
-  </si>
-  <si>
-    <t>BAROT RAJESH GOPALBHAI</t>
-  </si>
-  <si>
-    <t>BAROT RANJITSINH ABHESINH</t>
-  </si>
-  <si>
-    <t>BAROT RAVINDRABHAI DINESHBHAI</t>
-  </si>
-  <si>
-    <t>BAROT SANDHYA KRUSHNAKANT</t>
-  </si>
-  <si>
-    <t>BAROT SHILVANTIBEN MANISHKUMAR</t>
-  </si>
-  <si>
-    <t>BAROT VIJAYKUMAR PRATAPBHAI</t>
-  </si>
-  <si>
-    <t>BAROT VIJAYKUMAR SHANKARBHAI</t>
-  </si>
-  <si>
-    <t>BAROT VINODKUMAR KESHAVLAL</t>
-  </si>
-  <si>
-    <t>BAROT VRUSHANK JANAKKUMAR</t>
-  </si>
-  <si>
-    <t>BASARGE SHIVARUDRA SHIWABASU</t>
-  </si>
-  <si>
-    <t>BAVAGOSAI MANISH SURESHGIRI</t>
-  </si>
-  <si>
-    <t>BAXANI ROSHNI JAYANT</t>
-  </si>
-  <si>
-    <t>BEG MAZHAR HUSSAIN MOHAMMADHANIF</t>
-  </si>
-  <si>
-    <t>BELANI HIREN HARENDRABHAI</t>
-  </si>
-  <si>
-    <t>BELSARE JAYESH HEMCHANDRA</t>
-  </si>
-  <si>
-    <t>BERA SANCHITA</t>
-  </si>
-  <si>
-    <t>Berani Hiren Harendra</t>
-  </si>
-  <si>
-    <t>BERAWALA MOHAMADSOAIB ABDULGANI</t>
-  </si>
-  <si>
-    <t>BHABHOR DHAVALKUMAR BHARATSINH</t>
-  </si>
-  <si>
-    <t>BHABHOR MANISHABEN SURESHBHAI</t>
-  </si>
-  <si>
-    <t>BHADAVRIYA SATYAPAL UDAYVIRSINGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHAGAT BHRUGUNATHSINGH A </t>
-  </si>
-  <si>
-    <t>BHAGAT BRIJESHKUMAR SUNDARBHAI</t>
-  </si>
-  <si>
-    <t>BHAGAT CHIRAGKUMAR SURESHCHANDRA</t>
-  </si>
-  <si>
-    <t>BHAGAT DINESHKUMAR JETHABHAI</t>
-  </si>
-  <si>
-    <t>BHAGAT DIPAKKUMAR SURESHCHANDRA</t>
-  </si>
-  <si>
-    <t>BHAGAT PRAGNESHKUMAR MADHUSUDANBHAI</t>
-  </si>
-  <si>
-    <t>BHAISAHEB HAMID NURUDDINBHAI</t>
-  </si>
-  <si>
-    <t>BHAISAHEB ZAINAB HAMID</t>
-  </si>
-  <si>
-    <t>BHALE YOGINI CHANDRAKANT</t>
-  </si>
-  <si>
-    <t>BHALERAO MORESHWAR SHADASHIV</t>
-  </si>
-  <si>
-    <t>BHALIA BHASKARBHAI CHANDUBHAI</t>
-  </si>
-  <si>
-    <t>BHALIYA ANKITKUMAR JAYANTILAL</t>
-  </si>
-  <si>
-    <t>BHALIYA BHARATBHAI DINESHBHAI</t>
-  </si>
-  <si>
-    <t>BHALIYA DINESHKUMAR SOMABHAI</t>
-  </si>
-  <si>
-    <t>BHALIYA HARESHKUMAR CHIMANBHAI</t>
-  </si>
-  <si>
-    <t>BHALIYA JAYESHBHAI GOVINDBHAI</t>
-  </si>
-  <si>
-    <t>BHALIYA KALPITABEN PRAVINBHAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHALIYA KALPITABEN PRAVINBHAI </t>
-  </si>
-  <si>
-    <t>BHALIYA PRAKASHKUMAR MANUBHAI</t>
-  </si>
-  <si>
-    <t>BHALIYA RITESHBHAI RAMANBHAI</t>
-  </si>
-  <si>
-    <t>BHALIYA VIJAYKUMAR KANUBHAI</t>
-  </si>
-  <si>
-    <t>BHALLA AMEETA INDER</t>
-  </si>
-  <si>
-    <t>BHALLA PANNA INDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHAMBHLANI SHEETAL SHYAMKUM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHANDERAO HARAL PURUSHOTTAM </t>
-  </si>
-  <si>
-    <t>BHARATBHAI HANNUBHAI KAHAR</t>
-  </si>
-  <si>
-    <t>BHARATI MAHENDRAKUMAR BHAILALBHAI</t>
-  </si>
-  <si>
-    <t>101 message</t>
-  </si>
-  <si>
-    <t>130 message</t>
-  </si>
-  <si>
-    <t>160 message</t>
-  </si>
-  <si>
-    <t>BHARMBHATT HIRENKUMAR KUBERBHAI</t>
-  </si>
-  <si>
-    <t>Bharmbhatt Ketul Tarunkumar</t>
-  </si>
-  <si>
-    <t>Bharvad Vajubhai Savabhai</t>
-  </si>
-  <si>
-    <t>BHARWAD ANIRUDH BATHABHAI</t>
-  </si>
-  <si>
-    <t>BHARWAD VAJUBHAI SAVABHAI</t>
-  </si>
-  <si>
-    <t>BHATI SHIVRAJSINH DILIPSINH</t>
-  </si>
-  <si>
-    <t>BHATIA VIKRAM SATISHKUMAR</t>
-  </si>
-  <si>
-    <t>BHATIYA AMITKUMAR MOHANBHAI</t>
-  </si>
-  <si>
-    <t>BHATIYA ANKITA DEVENDRABHAI</t>
-  </si>
-  <si>
-    <t>BHATIYA MUKUNDRAY PUNAMCHAND</t>
-  </si>
-  <si>
     <t>BHATIYA PRIYANKA JIGNESH</t>
   </si>
   <si>
@@ -1249,13 +910,13 @@
     <t>501 message</t>
   </si>
   <si>
-    <t>300 message</t>
-  </si>
-  <si>
-    <t>301 message</t>
-  </si>
-  <si>
     <t>600 message</t>
+  </si>
+  <si>
+    <t>310 message</t>
+  </si>
+  <si>
+    <t>311 message</t>
   </si>
 </sst>
 </file>
@@ -1583,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C2371C-C373-415E-9011-DAD0A6F96663}">
-  <dimension ref="A1:B411"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1605,234 +1266,234 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="B2">
         <v>8460626019</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9424565001</v>
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3">
+        <v>9725898251</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>9824032131</v>
+        <v>9925522273</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>8511677522</v>
+        <v>9408352892</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8490802726</v>
+        <v>9428130594</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>9898253284</v>
+        <v>9426081726</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>9825019736</v>
+        <v>9824361924</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>9825025882</v>
+        <v>9727131854</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>7434951923</v>
+        <v>7802867951</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>7046463837</v>
+        <v>9725707005</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>9712828212</v>
+        <v>9924912499</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>9722135054</v>
+        <v>9427453842</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>9913678567</v>
+        <v>9426880471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>9726042841</v>
+        <v>9426763931</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>7434951923</v>
+        <v>9977627408</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>9173165718</v>
+        <v>9409231597</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>9913806131</v>
+        <v>9426762598</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>9558390835</v>
+        <v>9825029158</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>7990843283</v>
+        <v>9427344088</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>9727079207</v>
+        <v>9429256253</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>9825861567</v>
+        <v>9925374915</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>9825440543</v>
+        <v>9979870700</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>9978338859</v>
+        <v>9904444010</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>9016716858</v>
+        <v>9586377903</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>8866423982</v>
+        <v>8200757589</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>7698460421</v>
+        <v>9998936203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>8140562468</v>
+        <v>9428155997</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8674026292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>9426826099</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30">
-        <v>8460626019</v>
+      <c r="B30" s="1">
+        <v>9898086560</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1840,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>9173165718</v>
+        <v>9328072166</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1848,7 +1509,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>9714787346</v>
+        <v>8128671541</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1856,7 +1517,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>9558390835</v>
+        <v>9427921818</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1864,7 +1525,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>9904462938</v>
+        <v>9426318105</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1872,7 +1533,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>8530047616</v>
+        <v>9016686023</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1880,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>9824601377</v>
+        <v>9909982528</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1888,7 +1549,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>9978811965</v>
+        <v>9824018365</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1896,7 +1557,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>8401036110</v>
+        <v>9825894142</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1904,7 +1565,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>9737008144</v>
+        <v>9429025143</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1912,7 +1573,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>9624740277</v>
+        <v>9825764844</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1920,7 +1581,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>9033256122</v>
+        <v>9925831864</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1928,7 +1589,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>9978803374</v>
+        <v>8780175366</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1936,7 +1597,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>9825972797</v>
+        <v>7096164685</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1944,7 +1605,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>9377945917</v>
+        <v>8128619925</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1952,7 +1613,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>9638724888</v>
+        <v>9825008251</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1960,7 +1621,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>9879558697</v>
+        <v>9824430180</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1968,7 +1629,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>9904610480</v>
+        <v>9409231942</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1976,7 +1637,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>7698470867</v>
+        <v>8200076392</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1984,7 +1645,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>9427840799</v>
+        <v>9879054993</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1992,7 +1653,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>9824557636</v>
+        <v>9727000403</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2000,7 +1661,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>9601761053</v>
+        <v>9714254616</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -2008,7 +1669,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>9409623376</v>
+        <v>9428762274</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -2016,7 +1677,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>9825856633</v>
+        <v>9033150636</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -2024,7 +1685,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>9898832284</v>
+        <v>9067595060</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2032,7 +1693,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>9106476604</v>
+        <v>9601146631</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -2040,7 +1701,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>9824426415</v>
+        <v>9558060989</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2048,7 +1709,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>9427603749</v>
+        <v>9427352496</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2056,7 +1717,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>9727078996</v>
+        <v>9898235389</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2064,7 +1725,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>9016471959</v>
+        <v>9825099922</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2072,2814 +1733,1910 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>8140262268</v>
+        <v>9328219851</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61">
-        <v>8460626019</v>
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>7878303005</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>9825822325</v>
+        <v>8128671540</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>9913046064</v>
+        <v>8980054288</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>9824604759</v>
+        <v>9428425546</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>9722355957</v>
+        <v>9725441477</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>9727590891</v>
+        <v>9979886144</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>9824337726</v>
+        <v>9427840926</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>7600611241</v>
+        <v>9426894799</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>9726571670</v>
+        <v>9033155794</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>9377440544</v>
+        <v>8849639483</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>9974204410</v>
+        <v>9428438024</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>9601755622</v>
+        <v>9558650486</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>9377440544</v>
+        <v>9924565620</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>9925070611</v>
+        <v>9825051911</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>9426057420</v>
+        <v>9724487399</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>9904320981</v>
+        <v>9427300255</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>7567246367</v>
+        <v>9998879582</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>9714241451</v>
+        <v>9033712267</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>9825777945</v>
+        <v>9638530725</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>9825377115</v>
+        <v>9227440691</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>8347533501</v>
+        <v>9638530725</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>8905980007</v>
+        <v>9998666732</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>9925436119</v>
+        <v>9662522684</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>9687309890</v>
+        <v>9426352677</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>7405588512</v>
+        <v>9825215668</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>9016832650</v>
+        <v>9898268429</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>9427316565</v>
+        <v>9925881036</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>9427056170</v>
+        <v>9824131866</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>8866139310</v>
+        <v>9601737211</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>9408943146</v>
+        <v>8306666265</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>9725666837</v>
+        <v>7874778090</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>9638911949</v>
+        <v>7874778090</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>9974073012</v>
+        <v>9825017922</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="1">
-        <v>6352275520</v>
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94">
+        <v>8460626019</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="1">
-        <v>6352275520</v>
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95">
+        <v>8460626019</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="1">
-        <v>9173931913</v>
+        <v>9426416374</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="1">
-        <v>8238354977</v>
+        <v>9909099490</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="1">
-        <v>9974182656</v>
+        <v>9586662303</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="1">
-        <v>9427345432</v>
+        <v>8488012133</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="1">
-        <v>9978337553</v>
+        <v>9374270712</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="1">
-        <v>9824201363</v>
+        <v>9825468656</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="1">
-        <v>9824029371</v>
+        <v>6354646581</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="1">
-        <v>8460247015</v>
+        <v>9737773669</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="1">
+        <v>9998411234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="1">
-        <v>9898595884</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>409</v>
-      </c>
-      <c r="B105">
-        <v>8460626019</v>
+      <c r="B105" s="1">
+        <v>9904720347</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>410</v>
-      </c>
-      <c r="B106">
-        <v>8460626019</v>
+      <c r="A106" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="1">
+        <v>9016048852</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107" s="1">
-        <v>9737585811</v>
+        <v>8758848155</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" s="1">
-        <v>9898170308</v>
+        <v>9033813678</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" s="1">
-        <v>9925970153</v>
+        <v>9409611221</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110" s="1">
-        <v>9909520001</v>
+        <v>9879342093</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111" s="1">
-        <v>9925970153</v>
+        <v>7878216700</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112" s="1">
-        <v>9638480415</v>
+        <v>9724912709</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" s="1">
-        <v>9408352892</v>
+        <v>9825545806</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" s="1">
-        <v>7698595502</v>
+        <v>9510727222</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" s="1">
-        <v>7874221985</v>
+        <v>8140772591</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" s="1">
-        <v>9925029670</v>
+        <v>9374510540</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B117" s="1">
-        <v>9925522273</v>
+        <v>9586838683</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="1">
-        <v>9408352892</v>
+        <v>9998585785</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B119" s="1">
-        <v>9428130594</v>
+        <v>9664809134</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B120" s="1">
-        <v>9426081726</v>
+        <v>9825505061</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B121" s="1">
-        <v>9824361924</v>
+        <v>9824086122</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B122" s="1">
-        <v>9727131854</v>
+        <v>9824448070</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B123" s="1">
-        <v>7802867951</v>
+        <v>9714766122</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B124" s="1">
-        <v>9725707005</v>
+        <v>9601664928</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125" s="1">
-        <v>9924912499</v>
+        <v>9978811965</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126" s="1">
-        <v>9427453842</v>
+        <v>8160071263</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" s="1">
-        <v>9426880471</v>
+        <v>9904278462</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B128" s="1">
-        <v>9426763931</v>
+        <v>9727727370</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B129" s="1">
-        <v>9977627408</v>
+        <v>9537441055</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B130" s="1">
-        <v>9409231597</v>
+        <v>9979111862</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B131" s="1">
-        <v>9426762598</v>
+        <v>9825754208</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B132" s="1">
-        <v>9825029158</v>
+        <v>9824690089</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B133" s="1">
-        <v>9427344088</v>
+        <v>9898639317</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B134" s="1">
-        <v>9429256253</v>
+        <v>9898838848</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B135" s="1">
-        <v>9925374915</v>
+        <v>9898767676</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B136" s="1">
-        <v>9979870700</v>
+        <v>8780414151</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B137" s="1">
-        <v>9904444010</v>
+        <v>9081487226</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B138" s="1">
-        <v>9586377903</v>
+        <v>9924112541</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139" s="1">
-        <v>8200757589</v>
+        <v>9898516475</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140" s="1">
-        <v>9998936203</v>
+        <v>8238077799</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B141" s="1">
-        <v>9428155997</v>
+        <v>9737585811</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B142" s="1">
-        <v>8674026292</v>
+        <v>9099303911</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B143" s="1">
-        <v>9898086560</v>
+        <v>9879112287</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B144" s="1">
-        <v>9328072166</v>
+        <v>9714146915</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B145" s="1">
-        <v>8128671541</v>
+        <v>9925358996</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B146" s="1">
-        <v>9427921818</v>
+        <v>9979707620</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147" s="1">
-        <v>9426318105</v>
+        <v>9924112541</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B148" s="1">
-        <v>9016686023</v>
+        <v>9824045803</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B149" s="1">
-        <v>9909982528</v>
+        <v>9824810559</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B150" s="1">
-        <v>9824018365</v>
+        <v>9898516475</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B151" s="1">
-        <v>9825894142</v>
+        <v>9537210218</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B152" s="1">
-        <v>9429025143</v>
+        <v>9825064788</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B153" s="1">
-        <v>9825764844</v>
+        <v>9428761336</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B154" s="1">
-        <v>9925831864</v>
+        <v>9727631871</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B155" s="1">
-        <v>8780175366</v>
+        <v>9825072974</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B156" s="1">
-        <v>7096164685</v>
+        <v>9825741142</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B157" s="1">
-        <v>8128619925</v>
+        <v>9737585811</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B158" s="1">
-        <v>9825008251</v>
+        <v>9426378386</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B159" s="1">
-        <v>9824430180</v>
+        <v>7069054443</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B160" s="1">
-        <v>9409231942</v>
+        <v>9898170308</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B161" s="1">
-        <v>8200076392</v>
+        <v>9099303911</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B162" s="1">
-        <v>9879054993</v>
+        <v>7878216700</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B163" s="1">
-        <v>9727000403</v>
+        <v>7284083567</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B164" s="1">
-        <v>9714254616</v>
+        <v>9427368772</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B165" s="1">
-        <v>9428762274</v>
+        <v>9376189440</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B166" s="1">
-        <v>9033150636</v>
+        <v>9033362209</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B167" s="1">
-        <v>9067595060</v>
+        <v>6352302163</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B168" s="1">
-        <v>9601146631</v>
+        <v>9909798991</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B169" s="1">
-        <v>9558060989</v>
+        <v>9825545806</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B170" s="1">
-        <v>9427352496</v>
+        <v>9662054473</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
-        <v>169</v>
+      <c r="A171" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B171" s="1">
-        <v>9898235389</v>
+        <v>9428876155</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B172" s="1">
-        <v>9825099922</v>
+        <v>9727279273</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B173" s="1">
-        <v>9328219851</v>
+        <v>7567458370</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B174" s="1">
-        <v>7878303005</v>
+        <v>8238077799</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B175" s="1">
-        <v>8128671540</v>
+        <v>9510156938</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B176" s="1">
-        <v>8980054288</v>
+        <v>9879112287</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B177" s="1">
-        <v>9428425546</v>
+        <v>9879165874</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B178" s="1">
-        <v>9725441477</v>
+        <v>9374034949</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B179" s="1">
-        <v>9979886144</v>
+        <v>8511996600</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B180" s="1">
-        <v>9427840926</v>
+        <v>8160379835</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B181" s="1">
-        <v>9426894799</v>
+        <v>7984777591</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B182" s="1">
-        <v>9033155794</v>
+        <v>9924420926</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B183" s="1">
-        <v>8849639483</v>
+        <v>9427034510</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B184" s="1">
-        <v>9428438024</v>
+        <v>9825618780</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B185" s="1">
-        <v>9558650486</v>
+        <v>9408150610</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B186" s="1">
-        <v>9924565620</v>
+        <v>9998194334</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B187" s="1">
-        <v>9825051911</v>
+        <v>7698806730</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B188" s="1">
-        <v>9724487399</v>
+        <v>9428301521</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B189" s="1">
-        <v>9427300255</v>
+        <v>8160854498</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B190" s="1">
-        <v>9998879582</v>
+        <v>9913647030</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B191" s="1">
-        <v>9033712267</v>
+        <v>9825041368</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B192" s="1">
-        <v>9638530725</v>
+        <v>7698806730</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B193" s="1">
-        <v>9227440691</v>
+        <v>990901943</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B194" s="1">
-        <v>9638530725</v>
+        <v>9997297712</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B195" s="1">
-        <v>9998666732</v>
+        <v>9913647030</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>194</v>
       </c>
-      <c r="B196" s="1">
-        <v>9662522684</v>
+      <c r="B196">
+        <v>8460626019</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B197" s="1">
-        <v>9426352677</v>
+      <c r="A197" t="s">
+        <v>295</v>
+      </c>
+      <c r="B197">
+        <v>8460626019</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" s="1">
-        <v>9825215668</v>
+        <v>8156009080</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" s="1">
-        <v>9898268429</v>
+        <v>9825497571</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200" s="1">
-        <v>9925881036</v>
+        <v>7228828822</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201" s="1">
-        <v>9824131866</v>
+        <v>9327263636</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" s="1">
-        <v>9601737211</v>
+        <v>8000236908</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203" s="1">
-        <v>8306666265</v>
+        <v>9898381108</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" s="1">
-        <v>7874778090</v>
+        <v>9924420924</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205" s="1">
-        <v>7874778090</v>
+        <v>9825568195</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206" s="1">
+        <v>6351376540</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B206" s="1">
-        <v>9825017922</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>305</v>
-      </c>
-      <c r="B207">
-        <v>8460626019</v>
+      <c r="B207" s="1">
+        <v>9727451295</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>306</v>
-      </c>
-      <c r="B208">
-        <v>8460626019</v>
+      <c r="A208" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208" s="1">
+        <v>9879017127</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B209" s="1">
-        <v>9426416374</v>
+        <v>9898566461</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B210" s="1">
-        <v>9909099490</v>
+        <v>9327140039</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B211" s="1">
-        <v>9586662303</v>
+        <v>9879414964</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B212" s="1">
-        <v>8488012133</v>
+        <v>9586047436</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B213" s="1">
-        <v>9374270712</v>
+        <v>9898039910</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="1">
-        <v>9825468656</v>
+        <v>6353509932</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B215" s="1">
-        <v>6354646581</v>
+        <v>7621820314</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B216" s="1">
-        <v>9737773669</v>
+        <v>6353509932</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B217" s="1">
-        <v>9998411234</v>
+        <v>9825016103</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B218" s="1">
-        <v>9904720347</v>
+        <v>7874048116</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B219" s="1">
-        <v>9016048852</v>
+        <v>7779010751</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B220" s="1">
-        <v>8758848155</v>
+        <v>9879770611</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B221" s="1">
-        <v>9033813678</v>
+        <v>9925804858</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B222" s="1">
-        <v>9409611221</v>
+        <v>9408725212</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B223" s="1">
-        <v>9879342093</v>
+        <v>8141650264</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B224" s="1">
-        <v>7878216700</v>
+        <v>9824350660</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B225" s="1">
-        <v>9724912709</v>
+        <v>7779010751</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B226" s="1">
-        <v>9825545806</v>
+        <v>9376297009</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B227" s="1">
-        <v>9510727222</v>
+        <v>7567844018</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B228" s="1">
-        <v>8140772591</v>
+        <v>9409476418</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B229" s="1">
-        <v>9374510540</v>
+        <v>9426536768</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B230" s="1">
-        <v>9586838683</v>
+        <v>6355824131</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B231" s="1">
-        <v>9998585785</v>
+        <v>8866494260</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B232" s="1">
-        <v>9664809134</v>
+        <v>9173721202</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B233" s="1">
-        <v>9825505061</v>
+        <v>9825048218</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B234" s="1">
-        <v>9824086122</v>
+        <v>8401626427</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B235" s="1">
-        <v>9824448070</v>
+        <v>9726565505</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B236" s="1">
-        <v>9714766122</v>
+        <v>7600145504</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B237" s="1">
-        <v>9601664928</v>
+        <v>9376239711</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B238" s="1">
-        <v>9978811965</v>
+        <v>6351243261</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B239" s="1">
-        <v>8160071263</v>
+        <v>9879757585</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B240" s="1">
-        <v>9904278462</v>
+        <v>8140222384</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B241" s="1">
-        <v>9727727370</v>
+        <v>6351275253</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B242" s="1">
-        <v>9537441055</v>
+        <v>9925839099</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B243" s="1">
-        <v>9979111862</v>
+        <v>9624641813</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B244" s="1">
-        <v>9825754208</v>
+        <v>9624641813</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B245" s="1">
-        <v>9824690089</v>
+        <v>8866846425</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B246" s="1">
-        <v>9898639317</v>
+        <v>8200628292</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B247" s="1">
-        <v>9898838848</v>
+        <v>7048646423</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B248" s="1">
-        <v>9898767676</v>
+        <v>9511895882</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B249" s="1">
-        <v>8780414151</v>
+        <v>9898370219</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B250" s="1">
-        <v>9081487226</v>
+        <v>8758847463</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B251" s="1">
-        <v>9924112541</v>
+        <v>7778944337</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B252" s="1">
-        <v>9898516475</v>
+        <v>9624070279</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B253" s="1">
-        <v>8238077799</v>
+        <v>9879299688</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B254" s="1">
-        <v>9737585811</v>
+        <v>8140800740</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B255" s="1">
-        <v>9099303911</v>
+        <v>7600110216</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B256" s="1">
-        <v>9879112287</v>
+        <v>9157573248</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B257" s="1">
-        <v>9714146915</v>
+        <v>9722991293</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B258" s="1">
-        <v>9925358996</v>
+        <v>9979563300</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B259" s="1">
-        <v>9979707620</v>
+        <v>9227123555</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B260" s="1">
-        <v>9924112541</v>
+        <v>9429828303</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B261" s="1">
-        <v>9824045803</v>
+        <v>9998976822</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B262" s="1">
-        <v>9824810559</v>
+        <v>9879595027</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B263" s="1">
-        <v>9898516475</v>
+        <v>9429254443</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B264" s="1">
-        <v>9537210218</v>
+        <v>7600367155</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B265" s="1">
-        <v>9825064788</v>
+        <v>8980780487</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B266" s="1">
-        <v>9428761336</v>
+        <v>9825904807</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B267" s="1">
-        <v>9727631871</v>
+        <v>9574069580</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B268" s="1">
-        <v>9825072974</v>
+        <v>9426329771</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B269" s="1">
-        <v>9825741142</v>
+        <v>6352360073</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B270" s="1">
-        <v>9737585811</v>
+        <v>9824797671</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B271" s="1">
-        <v>9426378386</v>
+        <v>9974737580</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B272" s="1">
-        <v>7069054443</v>
+        <v>9687007927</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B273" s="1">
-        <v>9898170308</v>
+        <v>8758107748</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B274" s="1">
-        <v>9099303911</v>
+        <v>7359537097</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B275" s="1">
-        <v>7878216700</v>
+        <v>9376242696</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B276" s="1">
-        <v>7284083567</v>
+        <v>9913039695</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B277" s="1">
-        <v>9427368772</v>
+        <v>7202045630</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B278" s="1">
-        <v>9376189440</v>
+        <v>7600675851</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B279" s="1">
-        <v>9033362209</v>
+        <v>9925017440</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B280" s="1">
-        <v>6352302163</v>
+        <v>9904236451</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B281" s="1">
-        <v>9909798991</v>
+        <v>9374610878</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B282" s="1">
-        <v>9825545806</v>
+        <v>9624834985</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B283" s="1">
-        <v>9662054473</v>
+        <v>8586375294</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="2" t="s">
-        <v>280</v>
+      <c r="A284" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="B284" s="1">
-        <v>9428876155</v>
+        <v>9601270171</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B285" s="1">
-        <v>9727279273</v>
+        <v>9099922452</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B286" s="1">
-        <v>7567458370</v>
+        <v>9824523011</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B287" s="1">
-        <v>8238077799</v>
+        <v>9558819714</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B288" s="1">
-        <v>9510156938</v>
+        <v>9974774923</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B289" s="1">
-        <v>9879112287</v>
+        <v>7096759721</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B290" s="1">
-        <v>9879165874</v>
+        <v>8401469696</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B291" s="1">
-        <v>9374034949</v>
+        <v>8128888082</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B292" s="1">
-        <v>8511996600</v>
+        <v>9898031165</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B293" s="1">
-        <v>8160379835</v>
+        <v>9662745120</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B294" s="1">
-        <v>7984777591</v>
+        <v>9979748767</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B295" s="1">
-        <v>9924420926</v>
+        <v>9974525870</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B296" s="1">
-        <v>9427034510</v>
+        <v>9725052235</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B297" s="1">
-        <v>9825618780</v>
+        <v>9924924944</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B298" s="1">
-        <v>9408150610</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B299" s="1">
-        <v>9998194334</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="1" t="s">
+      <c r="A298" t="s">
         <v>296</v>
       </c>
-      <c r="B300" s="1">
-        <v>7698806730</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B301" s="1">
-        <v>9428301521</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B302" s="1">
-        <v>8160854498</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B303" s="1">
-        <v>9913647030</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B304" s="1">
-        <v>9825041368</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B305" s="1">
-        <v>7698806730</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B306" s="1">
-        <v>990901943</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B307" s="1">
-        <v>9997297712</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B308" s="1">
-        <v>9913647030</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>307</v>
-      </c>
-      <c r="B309">
-        <v>8460626019</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>408</v>
-      </c>
-      <c r="B310">
-        <v>8460626019</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B311" s="1">
-        <v>8156009080</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B312" s="1">
-        <v>9825497571</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B313" s="1">
-        <v>7228828822</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B314" s="1">
-        <v>9327263636</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B315" s="1">
-        <v>8000236908</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B316" s="1">
-        <v>9898381108</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B317" s="1">
-        <v>9924420924</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B318" s="1">
-        <v>9825568195</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B319" s="1">
-        <v>6351376540</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B320" s="1">
-        <v>9727451295</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B321" s="1">
-        <v>9879017127</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B322" s="1">
-        <v>9898566461</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B323" s="1">
-        <v>9327140039</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B324" s="1">
-        <v>9879414964</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B325" s="1">
-        <v>9586047436</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B326" s="1">
-        <v>9898039910</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B327" s="1">
-        <v>6353509932</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B328" s="1">
-        <v>7621820314</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B329" s="1">
-        <v>6353509932</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B330" s="1">
-        <v>9825016103</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B331" s="1">
-        <v>7874048116</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B332" s="1">
-        <v>7779010751</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B333" s="1">
-        <v>9879770611</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B334" s="1">
-        <v>9925804858</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B335" s="1">
-        <v>9408725212</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B336" s="1">
-        <v>8141650264</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B337" s="1">
-        <v>9824350660</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B338" s="1">
-        <v>7779010751</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B339" s="1">
-        <v>9376297009</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B340" s="1">
-        <v>7567844018</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B341" s="1">
-        <v>9409476418</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B342" s="1">
-        <v>9426536768</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B343" s="1">
-        <v>6355824131</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A344" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B344" s="1">
-        <v>8866494260</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A345" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B345" s="1">
-        <v>9173721202</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B346" s="1">
-        <v>9825048218</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A347" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B347" s="1">
-        <v>8401626427</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A348" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B348" s="1">
-        <v>9726565505</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A349" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B349" s="1">
-        <v>7600145504</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A350" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B350" s="1">
-        <v>9376239711</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A351" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B351" s="1">
-        <v>6351243261</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A352" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B352" s="1">
-        <v>9879757585</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A353" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B353" s="1">
-        <v>8140222384</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A354" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B354" s="1">
-        <v>6351275253</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A355" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B355" s="1">
-        <v>9925839099</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A356" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B356" s="1">
-        <v>9624641813</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A357" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B357" s="1">
-        <v>9624641813</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A358" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B358" s="1">
-        <v>8866846425</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A359" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B359" s="1">
-        <v>8200628292</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A360" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B360" s="1">
-        <v>7048646423</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A361" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B361" s="1">
-        <v>9511895882</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A362" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B362" s="1">
-        <v>9898370219</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A363" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B363" s="1">
-        <v>8758847463</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A364" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B364" s="1">
-        <v>7778944337</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A365" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B365" s="1">
-        <v>9624070279</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A366" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B366" s="1">
-        <v>9879299688</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A367" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B367" s="1">
-        <v>8140800740</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A368" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B368" s="1">
-        <v>7600110216</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A369" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B369" s="1">
-        <v>9157573248</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A370" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B370" s="1">
-        <v>9722991293</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A371" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B371" s="1">
-        <v>9979563300</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A372" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B372" s="1">
-        <v>9227123555</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A373" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B373" s="1">
-        <v>9429828303</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A374" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B374" s="1">
-        <v>9998976822</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A375" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B375" s="1">
-        <v>9879595027</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A376" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B376" s="1">
-        <v>9429254443</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A377" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B377" s="1">
-        <v>7600367155</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A378" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B378" s="1">
-        <v>8980780487</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A379" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B379" s="1">
-        <v>9825904807</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A380" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B380" s="1">
-        <v>9574069580</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A381" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B381" s="1">
-        <v>9426329771</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A382" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B382" s="1">
-        <v>6352360073</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A383" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B383" s="1">
-        <v>9824797671</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A384" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B384" s="1">
-        <v>9974737580</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A385" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B385" s="1">
-        <v>9687007927</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A386" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B386" s="1">
-        <v>8758107748</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A387" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B387" s="1">
-        <v>7359537097</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A388" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B388" s="1">
-        <v>9376242696</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A389" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B389" s="1">
-        <v>9913039695</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A390" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B390" s="1">
-        <v>7202045630</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A391" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B391" s="1">
-        <v>7600675851</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A392" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B392" s="1">
-        <v>9925017440</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A393" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B393" s="1">
-        <v>9904236451</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A394" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B394" s="1">
-        <v>9374610878</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A395" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B395" s="1">
-        <v>9624834985</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A396" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B396" s="1">
-        <v>8586375294</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A397" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B397" s="1">
-        <v>9601270171</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A398" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B398" s="1">
-        <v>9099922452</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A399" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B399" s="1">
-        <v>9824523011</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A400" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B400" s="1">
-        <v>9558819714</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A401" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B401" s="1">
-        <v>9974774923</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A402" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B402" s="1">
-        <v>7096759721</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A403" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B403" s="1">
-        <v>8401469696</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A404" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B404" s="1">
-        <v>8128888082</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A405" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B405" s="1">
-        <v>9898031165</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A406" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B406" s="1">
-        <v>9662745120</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A407" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B407" s="1">
-        <v>9979748767</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A408" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B408" s="1">
-        <v>9974525870</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A409" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B409" s="1">
-        <v>9725052235</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A410" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B410" s="1">
-        <v>9924924944</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A411" t="s">
-        <v>411</v>
-      </c>
-      <c r="B411">
+      <c r="B298">
         <v>8460626019</v>
       </c>
     </row>

--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D460C6FF-3207-4791-96D6-91960595A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76FB327-E16E-407B-B1E6-9DF74C77CEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,277 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>BHATIYA PRIYANKA JIGNESH</t>
-  </si>
-  <si>
-    <t>BHATIYA VIKRAM SATISHKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT ALKA BHAGVATIPRASAD</t>
-  </si>
-  <si>
-    <t>BHATT AMIT RAJNIKANT</t>
-  </si>
-  <si>
-    <t>BHATT AMITKUMAR KANAIYALAL</t>
-  </si>
-  <si>
-    <t>BHATT ANAMIKA UTSAVKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT APEXABEN RAMESHBHAI</t>
-  </si>
-  <si>
-    <t>BHATT ARPANKUMAR BALMUKUND</t>
-  </si>
-  <si>
-    <t>BHATT ARYA HIREN</t>
-  </si>
-  <si>
-    <t>BHATT ASHISHKUMAR PUSHPAVADAN</t>
-  </si>
-  <si>
-    <t>BHATT ASHUTOSH SHANKARLAL</t>
-  </si>
-  <si>
-    <t>BHATT AVANI VIBHAKARBHAI</t>
-  </si>
-  <si>
-    <t>BHATT BANSARL DHIMANT</t>
-  </si>
-  <si>
-    <t>BHATT BHADRESHBHAI ARUNBHAI</t>
-  </si>
-  <si>
-    <t>BHATT BHAMINI KIRITBHAI</t>
-  </si>
-  <si>
-    <t>BHATT CHANDRAVADAN NAVINCHANDRA</t>
-  </si>
-  <si>
-    <t>BHATT CHIRAG NARENDRAKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT DARSHAN HASMUKHRAY</t>
-  </si>
-  <si>
-    <t>BHATT DEVANGKUMAR CHANDRASHANKAR</t>
-  </si>
-  <si>
-    <t>BHATT DEVASHRE ASHESHKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT DHARMENDRA UMAKANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHATT DILIPKUMAR NARHARIBHAI </t>
-  </si>
-  <si>
-    <t>BHATT DIPAKKUMAR DINKARRAY</t>
-  </si>
-  <si>
-    <t>BHATT DIVYANG GOPALDAS</t>
-  </si>
-  <si>
-    <t>BHATT DUSHYANT CHETANKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT FORAM NIPUNKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT HARDIK PRADYUMAN</t>
-  </si>
-  <si>
-    <t>BHATT HASMUKHBHAI KANTIBHAI</t>
-  </si>
-  <si>
-    <t>BHATT HIRAK AMBAR</t>
-  </si>
-  <si>
-    <t>BHATT HIRAL INDRAVADAN</t>
-  </si>
-  <si>
-    <t>BHATT HIRALBEN KUNDANKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT HIREN DILIPKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT ISHAN NIKHIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHATT JAGDISHCHANDRA BALKRISHNA </t>
-  </si>
-  <si>
-    <t>BHATT JAGDISHCHANDRA GAURISHANKAR</t>
-  </si>
-  <si>
-    <t>BHATT JAIMINKUMAR SUNILKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT JAYPRAKASH PURSOTTAMBHAI</t>
-  </si>
-  <si>
-    <t>BHATT JAYSHREE JAGDISHCHANDRA</t>
-  </si>
-  <si>
-    <t>BHATT KAJAL  RUTVIJ</t>
-  </si>
-  <si>
-    <t>BHATT KAJAL RUTVIJ</t>
-  </si>
-  <si>
-    <t>BHATT KARTIKEYA BHAVESHBHAI</t>
-  </si>
-  <si>
-    <t>BHATT KAUSHIK MAHASHANKAR</t>
-  </si>
-  <si>
-    <t>BHATT KAUSHIKCHNADRA BHALCHANDRA</t>
-  </si>
-  <si>
-    <t>BHATT KRISHNAPRASAD MANUPRASAD</t>
-  </si>
-  <si>
-    <t>BHATT MANAVKUMAR RAJESHKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT MANISHA ASHOKKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT MAYA VASUDEV</t>
-  </si>
-  <si>
-    <t>BHATT MAYUR MAHENDRA</t>
-  </si>
-  <si>
-    <t>BHATT NAHESHCHANDRA NAVINCHANDRA</t>
-  </si>
-  <si>
-    <t>BHATT PRATIKSHA ASHOKBHAI</t>
-  </si>
-  <si>
-    <t>BHATT PRIAYNKA RAJENDRA</t>
-  </si>
-  <si>
-    <t>BHATT PRITIBEN BHUPENDRAKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT RADHIKA MANISH</t>
-  </si>
-  <si>
-    <t>BHATT RAKESHKUMAR CHANDRAKANT</t>
-  </si>
-  <si>
-    <t>BHATT ROOPALKUMAR BIPINBHAI</t>
-  </si>
-  <si>
-    <t>BHATT RUCHI KAMALKANT</t>
-  </si>
-  <si>
-    <t>BHATT SEJALBEN NAVINCHAND</t>
-  </si>
-  <si>
-    <t>BHATT SHIVANG JAGDISHCHANDRA</t>
-  </si>
-  <si>
-    <t>BHATT SOHANI AMBAR</t>
-  </si>
-  <si>
-    <t>BHATT SUKETU KIRANCHANDRA</t>
-  </si>
-  <si>
-    <t>BHATT TUSHAR SHANTILAL</t>
-  </si>
-  <si>
-    <t>BHATT VANDANA DILIPKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT VANDITA VIJAYKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT VIHAR DILIPBHAI</t>
-  </si>
-  <si>
-    <t>BHATT VIJAYKUMAR ASHOKKUMAR</t>
-  </si>
-  <si>
-    <t>BHATT YASH RAMAKANT</t>
-  </si>
-  <si>
-    <t>BHATTACHARYA SUMAN RAVINDRAKUMAR</t>
-  </si>
-  <si>
-    <t>BHATTI GEETABEN BHANUBHAI</t>
-  </si>
-  <si>
-    <t>BHATTI IMRANMIYA MAHAMMADMIYA</t>
-  </si>
-  <si>
-    <t>BHATTI MOHAMMADZUBER ISMAILBHAI</t>
-  </si>
-  <si>
-    <t>BHATTJI SUDHANSHU PRAVINBHAI</t>
-  </si>
-  <si>
-    <t>BHATTJI YASHASHVI KEYUR</t>
-  </si>
-  <si>
-    <t>BHAVSAR ARCHI MUKESHKUMAR</t>
-  </si>
-  <si>
-    <t>BHAVSAR BHARTI NIRAV</t>
-  </si>
-  <si>
-    <t>BHAVSAR BRIJAL RAJENDRABHAI</t>
-  </si>
-  <si>
-    <t>BHAVSAR JALPA NAYAN</t>
-  </si>
-  <si>
-    <t>BHAVSAR JAP SANTOSH</t>
-  </si>
-  <si>
-    <t>BHAVSAR JILPA NAYAN</t>
-  </si>
-  <si>
-    <t>BHAVSAR KRUNAL BIPINCHANDRA</t>
-  </si>
-  <si>
-    <t>BHAVSAR MANISHABEN JAGDISHCHANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHAVSAR MUKESH VITTHALDAS </t>
-  </si>
-  <si>
-    <t>BHAVSAR NAYAN ASHWINBHAI</t>
-  </si>
-  <si>
-    <t>BHAVSAR NEELAM AJITKUMAR</t>
-  </si>
-  <si>
-    <t>BHAVSAR PRALHAD NARAYAN</t>
-  </si>
-  <si>
-    <t>BHAVSAR RAJSHREE VINODCHANDRA</t>
-  </si>
-  <si>
-    <t>BHAVSAR RAVI NARAHARIBHAI</t>
-  </si>
-  <si>
-    <t>BHAVSAR RINAM NITIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHAVSAR ROHAN ROHITBHAI </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>BHAVSAR ROHANKUMAR ROHITBHAI</t>
   </si>
@@ -601,9 +331,6 @@
     <t>400 message</t>
   </si>
   <si>
-    <t>401 message</t>
-  </si>
-  <si>
     <t>500 message</t>
   </si>
   <si>
@@ -907,16 +634,7 @@
     <t>CHAVDA HARSHADBHAI SHANABHAI</t>
   </si>
   <si>
-    <t>501 message</t>
-  </si>
-  <si>
     <t>600 message</t>
-  </si>
-  <si>
-    <t>310 message</t>
-  </si>
-  <si>
-    <t>311 message</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C2371C-C373-415E-9011-DAD0A6F96663}">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1257,27 +975,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1">
+        <v>7874778090</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2">
-        <v>8460626019</v>
+      <c r="B2" s="1">
+        <v>9825017922</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>102</v>
       </c>
       <c r="B3">
-        <v>9725898251</v>
+        <v>8460626019</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1285,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>9925522273</v>
+        <v>9426416374</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1293,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>9408352892</v>
+        <v>9909099490</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1301,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>9428130594</v>
+        <v>9586662303</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1309,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>9426081726</v>
+        <v>8488012133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1317,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>9824361924</v>
+        <v>9374270712</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1325,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>9727131854</v>
+        <v>9825468656</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1333,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>7802867951</v>
+        <v>6354646581</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1341,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9725707005</v>
+        <v>9737773669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1349,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>9924912499</v>
+        <v>9998411234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1357,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>9427453842</v>
+        <v>9904720347</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1365,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>9426880471</v>
+        <v>9016048852</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1373,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>9426763931</v>
+        <v>8758848155</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1381,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>9977627408</v>
+        <v>9033813678</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1389,7 +1107,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>9409231597</v>
+        <v>9409611221</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1397,7 +1115,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>9426762598</v>
+        <v>9879342093</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1405,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>9825029158</v>
+        <v>7878216700</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1413,7 +1131,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>9427344088</v>
+        <v>9724912709</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1421,7 +1139,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>9429256253</v>
+        <v>9825545806</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1429,7 +1147,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>9925374915</v>
+        <v>9510727222</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1437,7 +1155,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>9979870700</v>
+        <v>8140772591</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1445,7 +1163,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>9904444010</v>
+        <v>9374510540</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1453,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>9586377903</v>
+        <v>9586838683</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1461,7 +1179,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>8200757589</v>
+        <v>9998585785</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1469,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>9998936203</v>
+        <v>9664809134</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1477,7 +1195,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>9428155997</v>
+        <v>9825505061</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1485,7 +1203,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>8674026292</v>
+        <v>9824086122</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1493,7 +1211,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>9898086560</v>
+        <v>9824448070</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1501,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>9328072166</v>
+        <v>9714766122</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1509,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>8128671541</v>
+        <v>9601664928</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1517,7 +1235,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>9427921818</v>
+        <v>9978811965</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1525,7 +1243,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>9426318105</v>
+        <v>8160071263</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1533,7 +1251,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>9016686023</v>
+        <v>9904278462</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1541,7 +1259,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>9909982528</v>
+        <v>9727727370</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1549,7 +1267,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>9824018365</v>
+        <v>9537441055</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1557,7 +1275,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>9825894142</v>
+        <v>9979111862</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1565,7 +1283,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>9429025143</v>
+        <v>9825754208</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1573,7 +1291,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>9825764844</v>
+        <v>9824690089</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1581,7 +1299,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>9925831864</v>
+        <v>9898639317</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1589,7 +1307,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>8780175366</v>
+        <v>9898838848</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1597,7 +1315,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>7096164685</v>
+        <v>9898767676</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1605,7 +1323,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>8128619925</v>
+        <v>8780414151</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1613,7 +1331,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>9825008251</v>
+        <v>9081487226</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1621,7 +1339,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>9824430180</v>
+        <v>9924112541</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1629,7 +1347,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>9409231942</v>
+        <v>9898516475</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1637,7 +1355,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>8200076392</v>
+        <v>8238077799</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1645,7 +1363,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>9879054993</v>
+        <v>9737585811</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1653,7 +1371,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>9727000403</v>
+        <v>9099303911</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1661,7 +1379,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>9714254616</v>
+        <v>9879112287</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1669,7 +1387,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>9428762274</v>
+        <v>9714146915</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1677,7 +1395,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>9033150636</v>
+        <v>9925358996</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1685,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>9067595060</v>
+        <v>9979707620</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1693,7 +1411,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>9601146631</v>
+        <v>9924112541</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1701,7 +1419,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>9558060989</v>
+        <v>9824045803</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1709,7 +1427,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>9427352496</v>
+        <v>9824810559</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1717,7 +1435,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>9898235389</v>
+        <v>9898516475</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1725,7 +1443,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>9825099922</v>
+        <v>9537210218</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1733,7 +1451,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>9328219851</v>
+        <v>9825064788</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1741,7 +1459,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>7878303005</v>
+        <v>9428761336</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1749,7 +1467,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>8128671540</v>
+        <v>9727631871</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1757,7 +1475,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>8980054288</v>
+        <v>9825072974</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1765,7 +1483,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>9428425546</v>
+        <v>9825741142</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1773,7 +1491,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>9725441477</v>
+        <v>9737585811</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1781,7 +1499,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>9979886144</v>
+        <v>9426378386</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1789,7 +1507,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>9427840926</v>
+        <v>7069054443</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1797,7 +1515,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>9426894799</v>
+        <v>9898170308</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1805,7 +1523,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>9033155794</v>
+        <v>9099303911</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1813,7 +1531,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>8849639483</v>
+        <v>7878216700</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1821,7 +1539,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>9428438024</v>
+        <v>7284083567</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1829,7 +1547,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>9558650486</v>
+        <v>9427368772</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1837,7 +1555,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>9924565620</v>
+        <v>9376189440</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1845,7 +1563,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>9825051911</v>
+        <v>9033362209</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1853,7 +1571,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>9724487399</v>
+        <v>6352302163</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1861,7 +1579,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>9427300255</v>
+        <v>9909798991</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1869,7 +1587,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>9998879582</v>
+        <v>9825545806</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1877,15 +1595,15 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>9033712267</v>
+        <v>9662054473</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>9638530725</v>
+        <v>9428876155</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1893,7 +1611,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>9227440691</v>
+        <v>9727279273</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1901,7 +1619,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>9638530725</v>
+        <v>7567458370</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1909,7 +1627,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>9998666732</v>
+        <v>8238077799</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1917,7 +1635,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>9662522684</v>
+        <v>9510156938</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1925,7 +1643,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>9426352677</v>
+        <v>9879112287</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1933,7 +1651,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>9825215668</v>
+        <v>9879165874</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1941,7 +1659,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>9898268429</v>
+        <v>9374034949</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1949,7 +1667,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>9925881036</v>
+        <v>8511996600</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1957,7 +1675,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>9824131866</v>
+        <v>8160379835</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1965,7 +1683,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>9601737211</v>
+        <v>7984777591</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1973,7 +1691,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>8306666265</v>
+        <v>9924420926</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1981,7 +1699,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>7874778090</v>
+        <v>9427034510</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1989,7 +1707,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>7874778090</v>
+        <v>9825618780</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1997,1646 +1715,902 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>9825017922</v>
+        <v>9408150610</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>192</v>
-      </c>
-      <c r="B94">
-        <v>8460626019</v>
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>9998194334</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95">
-        <v>8460626019</v>
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>7698806730</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>9426416374</v>
+        <v>9428301521</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>9909099490</v>
+        <v>8160854498</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>9586662303</v>
+        <v>9913647030</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>8488012133</v>
+        <v>9825041368</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>9374270712</v>
+        <v>7698806730</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>9825468656</v>
+        <v>990901943</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>6354646581</v>
+        <v>9997297712</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>9737773669</v>
+        <v>9913647030</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" s="1">
-        <v>9998411234</v>
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>8460626019</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>9904720347</v>
+        <v>8156009080</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>9016048852</v>
+        <v>9825497571</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>8758848155</v>
+        <v>7228828822</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>9033813678</v>
+        <v>9327263636</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>9409611221</v>
+        <v>8000236908</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>9879342093</v>
+        <v>9898381108</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>7878216700</v>
+        <v>9924420924</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>9724912709</v>
+        <v>9825568195</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>9825545806</v>
+        <v>6351376540</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>9510727222</v>
+        <v>9727451295</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>8140772591</v>
+        <v>9879017127</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>9374510540</v>
+        <v>9898566461</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>9586838683</v>
+        <v>9327140039</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>9998585785</v>
+        <v>9879414964</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>9664809134</v>
+        <v>9586047436</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>9825505061</v>
+        <v>9898039910</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>9824086122</v>
+        <v>6353509932</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>9824448070</v>
+        <v>7621820314</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>9714766122</v>
+        <v>6353509932</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>9601664928</v>
+        <v>9825016103</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>9978811965</v>
+        <v>7874048116</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>8160071263</v>
+        <v>7779010751</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>9904278462</v>
+        <v>9879770611</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>9727727370</v>
+        <v>9925804858</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>9537441055</v>
+        <v>9408725212</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>9979111862</v>
+        <v>8141650264</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>9825754208</v>
+        <v>9824350660</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>9824690089</v>
+        <v>7779010751</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>9898639317</v>
+        <v>9376297009</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>9898838848</v>
+        <v>7567844018</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>9898767676</v>
+        <v>9409476418</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>8780414151</v>
+        <v>9426536768</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>9081487226</v>
+        <v>6355824131</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>9924112541</v>
+        <v>8866494260</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>9898516475</v>
+        <v>9173721202</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>8238077799</v>
+        <v>9825048218</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>9737585811</v>
+        <v>8401626427</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>9099303911</v>
+        <v>9726565505</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>9879112287</v>
+        <v>7600145504</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>9714146915</v>
+        <v>9376239711</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>9925358996</v>
+        <v>6351243261</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>9979707620</v>
+        <v>9879757585</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>9924112541</v>
+        <v>8140222384</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>9824045803</v>
+        <v>6351275253</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>9824810559</v>
+        <v>9925839099</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>9898516475</v>
+        <v>9624641813</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>9537210218</v>
+        <v>9624641813</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>9825064788</v>
+        <v>8866846425</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>9428761336</v>
+        <v>8200628292</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>9727631871</v>
+        <v>7048646423</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>9825072974</v>
+        <v>9511895882</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>9825741142</v>
+        <v>9898370219</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>9737585811</v>
+        <v>8758847463</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>9426378386</v>
+        <v>7778944337</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>7069054443</v>
+        <v>9624070279</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>9898170308</v>
+        <v>9879299688</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>9099303911</v>
+        <v>8140800740</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>7878216700</v>
+        <v>7600110216</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>7284083567</v>
+        <v>9157573248</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>9427368772</v>
+        <v>9722991293</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>9376189440</v>
+        <v>9979563300</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>9033362209</v>
+        <v>9227123555</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>6352302163</v>
+        <v>9429828303</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>9909798991</v>
+        <v>9998976822</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>9825545806</v>
+        <v>9879595027</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>9662054473</v>
+        <v>9429254443</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="2" t="s">
-        <v>167</v>
+      <c r="A171" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>9428876155</v>
+        <v>7600367155</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>9727279273</v>
+        <v>8980780487</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>7567458370</v>
+        <v>9825904807</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>8238077799</v>
+        <v>9574069580</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>9510156938</v>
+        <v>9426329771</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>9879112287</v>
+        <v>6352360073</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>9879165874</v>
+        <v>9824797671</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>9374034949</v>
+        <v>9974737580</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>8511996600</v>
+        <v>9687007927</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>8160379835</v>
+        <v>8758107748</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>7984777591</v>
+        <v>7359537097</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>9924420926</v>
+        <v>9376242696</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>9427034510</v>
+        <v>9913039695</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>9825618780</v>
+        <v>7202045630</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>9408150610</v>
+        <v>7600675851</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>9998194334</v>
+        <v>9925017440</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>7698806730</v>
+        <v>9904236451</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>9428301521</v>
+        <v>9374610878</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>8160854498</v>
+        <v>9624834985</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>9913647030</v>
+        <v>8586375294</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>9825041368</v>
+        <v>9601270171</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>7698806730</v>
+        <v>9099922452</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>990901943</v>
+        <v>9824523011</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>9997297712</v>
+        <v>9558819714</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>9913647030</v>
+        <v>9974774923</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>8460626019</v>
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>7096759721</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>295</v>
-      </c>
-      <c r="B197">
-        <v>8460626019</v>
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>8401469696</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>8156009080</v>
+        <v>8128888082</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>9825497571</v>
+        <v>9898031165</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>7228828822</v>
+        <v>9662745120</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>9327263636</v>
+        <v>9979748767</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>8000236908</v>
+        <v>9974525870</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>9898381108</v>
+        <v>9725052235</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>9924420924</v>
+        <v>9924924944</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B205" s="1">
-        <v>9825568195</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B206" s="1">
-        <v>6351376540</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="1" t="s">
+      <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="B207" s="1">
-        <v>9727451295</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B208" s="1">
-        <v>9879017127</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B209" s="1">
-        <v>9898566461</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B210" s="1">
-        <v>9327140039</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B211" s="1">
-        <v>9879414964</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B212" s="1">
-        <v>9586047436</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B213" s="1">
-        <v>9898039910</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B214" s="1">
-        <v>6353509932</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B215" s="1">
-        <v>7621820314</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B216" s="1">
-        <v>6353509932</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B217" s="1">
-        <v>9825016103</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B218" s="1">
-        <v>7874048116</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B219" s="1">
-        <v>7779010751</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B220" s="1">
-        <v>9879770611</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B221" s="1">
-        <v>9925804858</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B222" s="1">
-        <v>9408725212</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B223" s="1">
-        <v>8141650264</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B224" s="1">
-        <v>9824350660</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B225" s="1">
-        <v>7779010751</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B226" s="1">
-        <v>9376297009</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B227" s="1">
-        <v>7567844018</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B228" s="1">
-        <v>9409476418</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B229" s="1">
-        <v>9426536768</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B230" s="1">
-        <v>6355824131</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B231" s="1">
-        <v>8866494260</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B232" s="1">
-        <v>9173721202</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B233" s="1">
-        <v>9825048218</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B234" s="1">
-        <v>8401626427</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B235" s="1">
-        <v>9726565505</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B236" s="1">
-        <v>7600145504</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B237" s="1">
-        <v>9376239711</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B238" s="1">
-        <v>6351243261</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B239" s="1">
-        <v>9879757585</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B240" s="1">
-        <v>8140222384</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B241" s="1">
-        <v>6351275253</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B242" s="1">
-        <v>9925839099</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B243" s="1">
-        <v>9624641813</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B244" s="1">
-        <v>9624641813</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B245" s="1">
-        <v>8866846425</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B246" s="1">
-        <v>8200628292</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B247" s="1">
-        <v>7048646423</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B248" s="1">
-        <v>9511895882</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B249" s="1">
-        <v>9898370219</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B250" s="1">
-        <v>8758847463</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B251" s="1">
-        <v>7778944337</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B252" s="1">
-        <v>9624070279</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B253" s="1">
-        <v>9879299688</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B254" s="1">
-        <v>8140800740</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B255" s="1">
-        <v>7600110216</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B256" s="1">
-        <v>9157573248</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B257" s="1">
-        <v>9722991293</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B258" s="1">
-        <v>9979563300</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B259" s="1">
-        <v>9227123555</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B260" s="1">
-        <v>9429828303</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B261" s="1">
-        <v>9998976822</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B262" s="1">
-        <v>9879595027</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B263" s="1">
-        <v>9429254443</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B264" s="1">
-        <v>7600367155</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B265" s="1">
-        <v>8980780487</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B266" s="1">
-        <v>9825904807</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B267" s="1">
-        <v>9574069580</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B268" s="1">
-        <v>9426329771</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B269" s="1">
-        <v>6352360073</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B270" s="1">
-        <v>9824797671</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B271" s="1">
-        <v>9974737580</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B272" s="1">
-        <v>9687007927</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B273" s="1">
-        <v>8758107748</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B274" s="1">
-        <v>7359537097</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B275" s="1">
-        <v>9376242696</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B276" s="1">
-        <v>9913039695</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B277" s="1">
-        <v>7202045630</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B278" s="1">
-        <v>7600675851</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B279" s="1">
-        <v>9925017440</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B280" s="1">
-        <v>9904236451</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B281" s="1">
-        <v>9374610878</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B282" s="1">
-        <v>9624834985</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B283" s="1">
-        <v>8586375294</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B284" s="1">
-        <v>9601270171</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B285" s="1">
-        <v>9099922452</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B286" s="1">
-        <v>9824523011</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B287" s="1">
-        <v>9558819714</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B288" s="1">
-        <v>9974774923</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B289" s="1">
-        <v>7096759721</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B290" s="1">
-        <v>8401469696</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B291" s="1">
-        <v>8128888082</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B292" s="1">
-        <v>9898031165</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B293" s="1">
-        <v>9662745120</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B294" s="1">
-        <v>9979748767</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B295" s="1">
-        <v>9974525870</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B296" s="1">
-        <v>9725052235</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B297" s="1">
-        <v>9924924944</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>296</v>
-      </c>
-      <c r="B298">
+      <c r="B205">
         <v>8460626019</v>
       </c>
     </row>

--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76FB327-E16E-407B-B1E6-9DF74C77CEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F46B6F6-3647-4447-9281-965DB76D939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
   <si>
     <t>BHAVSAR ROHANKUMAR ROHITBHAI</t>
   </si>
@@ -331,6 +337,9 @@
     <t>400 message</t>
   </si>
   <si>
+    <t>401 message</t>
+  </si>
+  <si>
     <t>500 message</t>
   </si>
   <si>
@@ -632,6 +641,9 @@
   </si>
   <si>
     <t>CHAVDA HARSHADBHAI SHANABHAI</t>
+  </si>
+  <si>
+    <t>501 message</t>
   </si>
   <si>
     <t>600 message</t>
@@ -962,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C2371C-C373-415E-9011-DAD0A6F96663}">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:XFD105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,43 +987,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>7874778090</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
+        <v>7874778090</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>9825017922</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
         <v>8460626019</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9426416374</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9909099490</v>
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>8460626019</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1019,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>9586662303</v>
+        <v>9426416374</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1027,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8488012133</v>
+        <v>9909099490</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1035,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>9374270712</v>
+        <v>9586662303</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1043,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>9825468656</v>
+        <v>8488012133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1051,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>6354646581</v>
+        <v>9374270712</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1059,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9737773669</v>
+        <v>9825468656</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1067,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>9998411234</v>
+        <v>6354646581</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1075,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>9904720347</v>
+        <v>9737773669</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1083,7 +1095,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>9016048852</v>
+        <v>9998411234</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1091,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>8758848155</v>
+        <v>9904720347</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1099,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>9033813678</v>
+        <v>9016048852</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1107,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>9409611221</v>
+        <v>8758848155</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1115,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>9879342093</v>
+        <v>9033813678</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1123,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>7878216700</v>
+        <v>9409611221</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1131,7 +1143,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>9724912709</v>
+        <v>9879342093</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1139,7 +1151,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>9825545806</v>
+        <v>7878216700</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1147,7 +1159,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>9510727222</v>
+        <v>9724912709</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1155,7 +1167,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>8140772591</v>
+        <v>9825545806</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1163,7 +1175,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>9374510540</v>
+        <v>9510727222</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1171,7 +1183,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>9586838683</v>
+        <v>8140772591</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1179,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>9998585785</v>
+        <v>9374510540</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1187,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>9664809134</v>
+        <v>9586838683</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1195,7 +1207,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>9825505061</v>
+        <v>9998585785</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1203,7 +1215,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>9824086122</v>
+        <v>9664809134</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1211,7 +1223,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>9824448070</v>
+        <v>9825505061</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1219,7 +1231,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>9714766122</v>
+        <v>9824086122</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1227,7 +1239,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>9601664928</v>
+        <v>9824448070</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1235,7 +1247,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>9978811965</v>
+        <v>9714766122</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1243,7 +1255,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>8160071263</v>
+        <v>9601664928</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1251,7 +1263,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>9904278462</v>
+        <v>9978811965</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1259,7 +1271,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>9727727370</v>
+        <v>8160071263</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1267,7 +1279,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>9537441055</v>
+        <v>9904278462</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1275,7 +1287,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>9979111862</v>
+        <v>9727727370</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1283,7 +1295,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>9825754208</v>
+        <v>9537441055</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1291,7 +1303,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>9824690089</v>
+        <v>9979111862</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1299,7 +1311,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>9898639317</v>
+        <v>9825754208</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1307,7 +1319,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>9898838848</v>
+        <v>9824690089</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1315,7 +1327,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>9898767676</v>
+        <v>9898639317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1323,7 +1335,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>8780414151</v>
+        <v>9898838848</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1331,7 +1343,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>9081487226</v>
+        <v>9898767676</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1339,7 +1351,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>9924112541</v>
+        <v>8780414151</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1347,7 +1359,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>9898516475</v>
+        <v>9081487226</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1355,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>8238077799</v>
+        <v>9924112541</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1363,7 +1375,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>9737585811</v>
+        <v>9898516475</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1371,7 +1383,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>9099303911</v>
+        <v>8238077799</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1379,7 +1391,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>9879112287</v>
+        <v>9737585811</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1387,7 +1399,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>9714146915</v>
+        <v>9099303911</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1395,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>9925358996</v>
+        <v>9879112287</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1403,7 +1415,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>9979707620</v>
+        <v>9714146915</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1411,7 +1423,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>9924112541</v>
+        <v>9925358996</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1419,7 +1431,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>9824045803</v>
+        <v>9979707620</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1427,7 +1439,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>9824810559</v>
+        <v>9924112541</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1435,7 +1447,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>9898516475</v>
+        <v>9824045803</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1443,7 +1455,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>9537210218</v>
+        <v>9824810559</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1451,7 +1463,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>9825064788</v>
+        <v>9898516475</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1459,7 +1471,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>9428761336</v>
+        <v>9537210218</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1467,7 +1479,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>9727631871</v>
+        <v>9825064788</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1475,7 +1487,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>9825072974</v>
+        <v>9428761336</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1483,7 +1495,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>9825741142</v>
+        <v>9727631871</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1491,7 +1503,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>9737585811</v>
+        <v>9825072974</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1499,7 +1511,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>9426378386</v>
+        <v>9825741142</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1507,7 +1519,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>7069054443</v>
+        <v>9737585811</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1515,7 +1527,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>9898170308</v>
+        <v>9426378386</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1523,7 +1535,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>9099303911</v>
+        <v>7069054443</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1531,7 +1543,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>7878216700</v>
+        <v>9898170308</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1539,7 +1551,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>7284083567</v>
+        <v>9099303911</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1547,7 +1559,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>9427368772</v>
+        <v>7878216700</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1555,7 +1567,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>9376189440</v>
+        <v>7284083567</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1563,7 +1575,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>9033362209</v>
+        <v>9427368772</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1571,7 +1583,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>6352302163</v>
+        <v>9376189440</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1579,7 +1591,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>9909798991</v>
+        <v>9033362209</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1587,7 +1599,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>9825545806</v>
+        <v>6352302163</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1595,15 +1607,15 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>9662054473</v>
+        <v>9909798991</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>9428876155</v>
+        <v>9825545806</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1611,15 +1623,15 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>9727279273</v>
+        <v>9662054473</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>7567458370</v>
+        <v>9428876155</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1627,7 +1639,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>8238077799</v>
+        <v>9727279273</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1635,7 +1647,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>9510156938</v>
+        <v>7567458370</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1643,7 +1655,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>9879112287</v>
+        <v>8238077799</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1651,7 +1663,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>9879165874</v>
+        <v>9510156938</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1659,7 +1671,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>9374034949</v>
+        <v>9879112287</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1667,7 +1679,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>8511996600</v>
+        <v>9879165874</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1675,7 +1687,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>8160379835</v>
+        <v>9374034949</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1683,7 +1695,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>7984777591</v>
+        <v>8511996600</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1691,7 +1703,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>9924420926</v>
+        <v>8160379835</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1699,7 +1711,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>9427034510</v>
+        <v>7984777591</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1707,7 +1719,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>9825618780</v>
+        <v>9924420926</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1715,7 +1727,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>9408150610</v>
+        <v>9427034510</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1723,7 +1735,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>9998194334</v>
+        <v>9825618780</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1731,7 +1743,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>7698806730</v>
+        <v>9408150610</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1739,7 +1751,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>9428301521</v>
+        <v>9998194334</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1747,7 +1759,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>8160854498</v>
+        <v>7698806730</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1755,7 +1767,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>9913647030</v>
+        <v>9428301521</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1763,7 +1775,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>9825041368</v>
+        <v>8160854498</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1771,7 +1783,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>7698806730</v>
+        <v>9913647030</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1779,7 +1791,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>990901943</v>
+        <v>9825041368</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1787,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>9997297712</v>
+        <v>7698806730</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1795,39 +1807,39 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>9913647030</v>
+        <v>990901943</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>8460626019</v>
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>9997297712</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>8156009080</v>
+        <v>9913647030</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1">
-        <v>9825497571</v>
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>8460626019</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="1">
-        <v>7228828822</v>
+      <c r="A107" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107">
+        <v>8460626019</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1835,7 +1847,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>9327263636</v>
+        <v>8156009080</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1843,7 +1855,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>8000236908</v>
+        <v>9825497571</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1851,7 +1863,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>9898381108</v>
+        <v>7228828822</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -1859,7 +1871,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>9924420924</v>
+        <v>9327263636</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -1867,7 +1879,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>9825568195</v>
+        <v>8000236908</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1875,7 +1887,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>6351376540</v>
+        <v>9898381108</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1883,7 +1895,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>9727451295</v>
+        <v>9924420924</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1891,7 +1903,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>9879017127</v>
+        <v>9825568195</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1899,7 +1911,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>9898566461</v>
+        <v>6351376540</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1907,7 +1919,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>9327140039</v>
+        <v>9727451295</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1915,7 +1927,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>9879414964</v>
+        <v>9879017127</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1923,7 +1935,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>9586047436</v>
+        <v>9898566461</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -1931,7 +1943,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>9898039910</v>
+        <v>9327140039</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1939,7 +1951,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>6353509932</v>
+        <v>9879414964</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1947,7 +1959,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>7621820314</v>
+        <v>9586047436</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -1955,7 +1967,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>6353509932</v>
+        <v>9898039910</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -1963,7 +1975,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>9825016103</v>
+        <v>6353509932</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -1971,7 +1983,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>7874048116</v>
+        <v>7621820314</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -1979,7 +1991,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>7779010751</v>
+        <v>6353509932</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -1987,7 +1999,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>9879770611</v>
+        <v>9825016103</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -1995,7 +2007,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>9925804858</v>
+        <v>7874048116</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -2003,7 +2015,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>9408725212</v>
+        <v>7779010751</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -2011,7 +2023,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>8141650264</v>
+        <v>9879770611</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -2019,7 +2031,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>9824350660</v>
+        <v>9925804858</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -2027,7 +2039,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>7779010751</v>
+        <v>9408725212</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -2035,7 +2047,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>9376297009</v>
+        <v>8141650264</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -2043,7 +2055,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>7567844018</v>
+        <v>9824350660</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -2051,7 +2063,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>9409476418</v>
+        <v>7779010751</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -2059,7 +2071,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>9426536768</v>
+        <v>9376297009</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -2067,7 +2079,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>6355824131</v>
+        <v>7567844018</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -2075,7 +2087,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>8866494260</v>
+        <v>9409476418</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -2083,7 +2095,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>9173721202</v>
+        <v>9426536768</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -2091,7 +2103,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>9825048218</v>
+        <v>6355824131</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -2099,7 +2111,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>8401626427</v>
+        <v>8866494260</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -2107,7 +2119,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>9726565505</v>
+        <v>9173721202</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -2115,7 +2127,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>7600145504</v>
+        <v>9825048218</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -2123,7 +2135,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>9376239711</v>
+        <v>8401626427</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -2131,7 +2143,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>6351243261</v>
+        <v>9726565505</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -2139,7 +2151,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>9879757585</v>
+        <v>7600145504</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -2147,7 +2159,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>8140222384</v>
+        <v>9376239711</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -2155,7 +2167,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>6351275253</v>
+        <v>6351243261</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -2163,7 +2175,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>9925839099</v>
+        <v>9879757585</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -2171,7 +2183,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>9624641813</v>
+        <v>8140222384</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -2179,7 +2191,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>9624641813</v>
+        <v>6351275253</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -2187,7 +2199,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>8866846425</v>
+        <v>9925839099</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -2195,7 +2207,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>8200628292</v>
+        <v>9624641813</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -2203,7 +2215,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>7048646423</v>
+        <v>9624641813</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -2211,7 +2223,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>9511895882</v>
+        <v>8866846425</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -2219,7 +2231,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>9898370219</v>
+        <v>8200628292</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -2227,7 +2239,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>8758847463</v>
+        <v>7048646423</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -2235,7 +2247,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>7778944337</v>
+        <v>9511895882</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -2243,7 +2255,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>9624070279</v>
+        <v>9898370219</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -2251,7 +2263,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>9879299688</v>
+        <v>8758847463</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -2259,7 +2271,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>8140800740</v>
+        <v>7778944337</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -2267,7 +2279,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>7600110216</v>
+        <v>9624070279</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -2275,7 +2287,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>9157573248</v>
+        <v>9879299688</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -2283,7 +2295,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>9722991293</v>
+        <v>8140800740</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -2291,7 +2303,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>9979563300</v>
+        <v>7600110216</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -2299,7 +2311,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>9227123555</v>
+        <v>9157573248</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -2307,7 +2319,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>9429828303</v>
+        <v>9722991293</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -2315,7 +2327,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>9998976822</v>
+        <v>9979563300</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -2323,7 +2335,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>9879595027</v>
+        <v>9227123555</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -2331,7 +2343,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>9429254443</v>
+        <v>9429828303</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -2339,7 +2351,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>7600367155</v>
+        <v>9998976822</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -2347,7 +2359,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>8980780487</v>
+        <v>9879595027</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -2355,7 +2367,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>9825904807</v>
+        <v>9429254443</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -2363,7 +2375,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>9574069580</v>
+        <v>7600367155</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -2371,7 +2383,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>9426329771</v>
+        <v>8980780487</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -2379,7 +2391,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>6352360073</v>
+        <v>9825904807</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -2387,7 +2399,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>9824797671</v>
+        <v>9574069580</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -2395,7 +2407,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>9974737580</v>
+        <v>9426329771</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -2403,7 +2415,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>9687007927</v>
+        <v>6352360073</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -2411,7 +2423,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>8758107748</v>
+        <v>9824797671</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -2419,7 +2431,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>7359537097</v>
+        <v>9974737580</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -2427,7 +2439,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>9376242696</v>
+        <v>9687007927</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -2435,7 +2447,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>9913039695</v>
+        <v>8758107748</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -2443,7 +2455,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>7202045630</v>
+        <v>7359537097</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -2451,7 +2463,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>7600675851</v>
+        <v>9376242696</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -2459,7 +2471,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>9925017440</v>
+        <v>9913039695</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -2467,7 +2479,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>9904236451</v>
+        <v>7202045630</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -2475,7 +2487,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>9374610878</v>
+        <v>7600675851</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -2483,7 +2495,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>9624834985</v>
+        <v>9925017440</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -2491,7 +2503,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>8586375294</v>
+        <v>9904236451</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -2499,7 +2511,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>9601270171</v>
+        <v>9374610878</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -2507,7 +2519,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>9099922452</v>
+        <v>9624834985</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -2515,7 +2527,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>9824523011</v>
+        <v>8586375294</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -2523,7 +2535,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>9558819714</v>
+        <v>9601270171</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -2531,7 +2543,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>9974774923</v>
+        <v>9099922452</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -2539,7 +2551,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>7096759721</v>
+        <v>9824523011</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -2547,7 +2559,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>8401469696</v>
+        <v>9558819714</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -2555,7 +2567,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>8128888082</v>
+        <v>9974774923</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -2563,7 +2575,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>9898031165</v>
+        <v>7096759721</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -2571,7 +2583,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>9662745120</v>
+        <v>8401469696</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -2579,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>9979748767</v>
+        <v>8128888082</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -2587,7 +2599,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>9974525870</v>
+        <v>9898031165</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -2595,7 +2607,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>9725052235</v>
+        <v>9662745120</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -2603,14 +2615,38 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
+        <v>9979748767</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>9974525870</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>9725052235</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
         <v>9924924944</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
         <v>8460626019</v>
       </c>
     </row>
